--- a/import/prep/excel_original_receipt/63-9ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ เมย63 (1-30มิย63).xlsx
+++ b/import/prep/excel_original_receipt/63-9ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ เมย63 (1-30มิย63).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Detail/WMA/excel (TEST)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Works/WMA201AM1/import/prep/excel_original_receipt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18513F56-3DD7-B940-ABE4-B87E99313B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F18F42-7131-9640-A91F-B2C0DFE58920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7584" uniqueCount="3837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7590" uniqueCount="3839">
   <si>
     <t>รวมเงิน</t>
   </si>
@@ -11550,6 +11550,12 @@
   </si>
   <si>
     <t>ชำระเช็คเลขที่ 10474504 จำนวนเงิน 11,268.70 บาท (4,269.30)</t>
+  </si>
+  <si>
+    <t>6มิ.ย.63</t>
+  </si>
+  <si>
+    <t>wma-633000590</t>
   </si>
 </sst>
 </file>
@@ -11819,7 +11825,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12159,6 +12165,20 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12175,75 +12195,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12269,6 +12220,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12280,20 +12300,18 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -12607,22 +12625,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="138" t="s">
         <v>3190</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="112"/>
@@ -12644,25 +12662,25 @@
       <c r="P2" s="115"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="137" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="131" t="s">
+      <c r="D3" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="131" t="s">
+      <c r="E3" s="137" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="135" t="s">
+      <c r="G3" s="141" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="113" t="s">
@@ -12671,47 +12689,47 @@
       <c r="I3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="131" t="s">
+      <c r="J3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="137" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="131" t="s">
+      <c r="M3" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="134" t="s">
+      <c r="N3" s="140" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="131"/>
-      <c r="B4" s="131"/>
+      <c r="A4" s="137"/>
+      <c r="B4" s="137"/>
       <c r="C4" s="111" t="s">
         <v>2419</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
       <c r="F4" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="135"/>
+      <c r="G4" s="141"/>
       <c r="H4" s="113" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
       <c r="L4" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="131"/>
-      <c r="N4" s="134"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="140"/>
       <c r="R4" s="109" t="s">
         <v>3191</v>
       </c>
@@ -54988,21 +55006,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="139" t="s">
         <v>3370</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
       <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
@@ -55023,25 +55041,25 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="137" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="131" t="s">
+      <c r="D3" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="131" t="s">
+      <c r="E3" s="137" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="135" t="s">
+      <c r="G3" s="141" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="113" t="s">
@@ -55050,47 +55068,47 @@
       <c r="I3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="131" t="s">
+      <c r="J3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="137" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="131" t="s">
+      <c r="M3" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="134" t="s">
+      <c r="N3" s="140" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="131"/>
-      <c r="B4" s="131"/>
+      <c r="A4" s="137"/>
+      <c r="B4" s="137"/>
       <c r="C4" s="111" t="s">
         <v>2419</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
       <c r="F4" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="135"/>
+      <c r="G4" s="141"/>
       <c r="H4" s="113" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
       <c r="L4" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="131"/>
-      <c r="N4" s="134"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="140"/>
     </row>
     <row r="5" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="27">
@@ -67202,24 +67220,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="158" t="s">
         <v>3412</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="144"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
       <c r="Q1" s="54"/>
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
@@ -67252,96 +67270,96 @@
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="145" t="s">
+      <c r="D3" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="131" t="s">
+      <c r="E3" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="155" t="s">
+      <c r="F3" s="156" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="155" t="s">
+      <c r="H3" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="146" t="s">
+      <c r="I3" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="140" t="s">
+      <c r="J3" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="148" t="s">
+      <c r="K3" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="140" t="s">
+      <c r="L3" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="140" t="s">
+      <c r="M3" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="140" t="s">
+      <c r="N3" s="162" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="142" t="s">
+      <c r="P3" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="150" t="s">
+      <c r="Q3" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="152">
+      <c r="R3" s="173">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="138" t="s">
+      <c r="S3" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="139" t="s">
+      <c r="U3" s="168" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="131"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="156"/>
+      <c r="A4" s="137"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="157"/>
       <c r="G4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="156"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
       <c r="O4" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="151"/>
-      <c r="R4" s="152"/>
-      <c r="S4" s="137"/>
-      <c r="T4" s="138"/>
-      <c r="U4" s="139"/>
+      <c r="P4" s="170"/>
+      <c r="Q4" s="172"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="166"/>
+      <c r="T4" s="167"/>
+      <c r="U4" s="168"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="51">
@@ -67353,13 +67371,13 @@
       <c r="C5" s="26" t="s">
         <v>3414</v>
       </c>
-      <c r="D5" s="159" t="s">
+      <c r="D5" s="153" t="s">
         <v>2230</v>
       </c>
-      <c r="E5" s="154" t="s">
+      <c r="E5" s="155" t="s">
         <v>2231</v>
       </c>
-      <c r="F5" s="154" t="s">
+      <c r="F5" s="155" t="s">
         <v>2216</v>
       </c>
       <c r="G5" s="121" t="s">
@@ -67413,9 +67431,9 @@
       <c r="C6" s="26" t="s">
         <v>3417</v>
       </c>
-      <c r="D6" s="159"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
       <c r="G6" s="121" t="s">
         <v>3163</v>
       </c>
@@ -67467,11 +67485,11 @@
       <c r="C7" s="26" t="s">
         <v>3418</v>
       </c>
-      <c r="D7" s="153" t="s">
+      <c r="D7" s="154" t="s">
         <v>2232</v>
       </c>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
       <c r="G7" s="121" t="s">
         <v>3435</v>
       </c>
@@ -67524,9 +67542,9 @@
       <c r="C8" s="26" t="s">
         <v>3419</v>
       </c>
-      <c r="D8" s="153"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
       <c r="G8" s="121" t="s">
         <v>3163</v>
       </c>
@@ -67582,8 +67600,8 @@
       <c r="D9" s="3" t="s">
         <v>2230</v>
       </c>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
       <c r="G9" s="121" t="s">
         <v>3202</v>
       </c>
@@ -67637,8 +67655,8 @@
       <c r="D10" s="3" t="s">
         <v>2232</v>
       </c>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
       <c r="G10" s="121" t="s">
         <v>3202</v>
       </c>
@@ -68713,13 +68731,13 @@
       <c r="C28" s="26" t="s">
         <v>3449</v>
       </c>
-      <c r="D28" s="160" t="s">
+      <c r="D28" s="143" t="s">
         <v>1770</v>
       </c>
-      <c r="E28" s="163" t="s">
+      <c r="E28" s="146" t="s">
         <v>1771</v>
       </c>
-      <c r="F28" s="163" t="s">
+      <c r="F28" s="146" t="s">
         <v>1772</v>
       </c>
       <c r="G28" s="101" t="s">
@@ -68775,9 +68793,9 @@
       <c r="C29" s="26" t="s">
         <v>3450</v>
       </c>
-      <c r="D29" s="162"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
       <c r="G29" s="101" t="s">
         <v>3</v>
       </c>
@@ -71117,13 +71135,13 @@
       <c r="C69" s="26" t="s">
         <v>3500</v>
       </c>
-      <c r="D69" s="153" t="s">
+      <c r="D69" s="154" t="s">
         <v>701</v>
       </c>
-      <c r="E69" s="154" t="s">
+      <c r="E69" s="155" t="s">
         <v>702</v>
       </c>
-      <c r="F69" s="154" t="s">
+      <c r="F69" s="155" t="s">
         <v>703</v>
       </c>
       <c r="G69" s="101" t="s">
@@ -71179,9 +71197,9 @@
       <c r="C70" s="26" t="s">
         <v>3501</v>
       </c>
-      <c r="D70" s="153"/>
-      <c r="E70" s="154"/>
-      <c r="F70" s="154"/>
+      <c r="D70" s="154"/>
+      <c r="E70" s="155"/>
+      <c r="F70" s="155"/>
       <c r="G70" s="101" t="s">
         <v>3435</v>
       </c>
@@ -71233,9 +71251,9 @@
       <c r="C71" s="26" t="s">
         <v>3502</v>
       </c>
-      <c r="D71" s="153"/>
-      <c r="E71" s="154"/>
-      <c r="F71" s="154"/>
+      <c r="D71" s="154"/>
+      <c r="E71" s="155"/>
+      <c r="F71" s="155"/>
       <c r="G71" s="101" t="s">
         <v>3163</v>
       </c>
@@ -71287,9 +71305,9 @@
       <c r="C72" s="26" t="s">
         <v>3503</v>
       </c>
-      <c r="D72" s="153"/>
-      <c r="E72" s="154"/>
-      <c r="F72" s="154"/>
+      <c r="D72" s="154"/>
+      <c r="E72" s="155"/>
+      <c r="F72" s="155"/>
       <c r="G72" s="101" t="s">
         <v>3202</v>
       </c>
@@ -72637,13 +72655,13 @@
       <c r="C95" s="26" t="s">
         <v>3545</v>
       </c>
-      <c r="D95" s="166" t="s">
+      <c r="D95" s="149" t="s">
         <v>1302</v>
       </c>
-      <c r="E95" s="157" t="s">
+      <c r="E95" s="151" t="s">
         <v>1303</v>
       </c>
-      <c r="F95" s="157" t="s">
+      <c r="F95" s="151" t="s">
         <v>1304</v>
       </c>
       <c r="G95" s="101" t="s">
@@ -72698,9 +72716,9 @@
       <c r="C96" s="26" t="s">
         <v>3546</v>
       </c>
-      <c r="D96" s="167"/>
-      <c r="E96" s="158"/>
-      <c r="F96" s="158"/>
+      <c r="D96" s="150"/>
+      <c r="E96" s="152"/>
+      <c r="F96" s="152"/>
       <c r="G96" s="101" t="s">
         <v>3</v>
       </c>
@@ -73333,13 +73351,13 @@
       <c r="C107" s="26" t="s">
         <v>3557</v>
       </c>
-      <c r="D107" s="166" t="s">
+      <c r="D107" s="149" t="s">
         <v>2235</v>
       </c>
-      <c r="E107" s="157" t="s">
+      <c r="E107" s="151" t="s">
         <v>2234</v>
       </c>
-      <c r="F107" s="157" t="s">
+      <c r="F107" s="151" t="s">
         <v>2216</v>
       </c>
       <c r="G107" s="101" t="s">
@@ -73374,7 +73392,7 @@
         <f t="shared" si="8"/>
         <v>1026.1300000000001</v>
       </c>
-      <c r="P107" s="172">
+      <c r="P107" s="131">
         <v>1026.1500000000001</v>
       </c>
       <c r="Q107" s="67">
@@ -73395,9 +73413,9 @@
       <c r="C108" s="26" t="s">
         <v>3558</v>
       </c>
-      <c r="D108" s="167"/>
-      <c r="E108" s="158"/>
-      <c r="F108" s="158"/>
+      <c r="D108" s="150"/>
+      <c r="E108" s="152"/>
+      <c r="F108" s="152"/>
       <c r="G108" s="101" t="s">
         <v>3</v>
       </c>
@@ -73430,7 +73448,7 @@
         <f t="shared" si="8"/>
         <v>685.33</v>
       </c>
-      <c r="P108" s="173">
+      <c r="P108" s="132">
         <v>685.35</v>
       </c>
       <c r="Q108" s="67">
@@ -73447,13 +73465,13 @@
       <c r="C109" s="26" t="s">
         <v>3559</v>
       </c>
-      <c r="D109" s="166" t="s">
+      <c r="D109" s="149" t="s">
         <v>2233</v>
       </c>
-      <c r="E109" s="157" t="s">
+      <c r="E109" s="151" t="s">
         <v>2234</v>
       </c>
-      <c r="F109" s="157" t="s">
+      <c r="F109" s="151" t="s">
         <v>2216</v>
       </c>
       <c r="G109" s="101" t="s">
@@ -73488,7 +73506,7 @@
         <f t="shared" si="8"/>
         <v>86.13</v>
       </c>
-      <c r="P109" s="172">
+      <c r="P109" s="131">
         <v>86.25</v>
       </c>
       <c r="Q109" s="67">
@@ -73505,9 +73523,9 @@
       <c r="C110" s="26" t="s">
         <v>3560</v>
       </c>
-      <c r="D110" s="167"/>
-      <c r="E110" s="158"/>
-      <c r="F110" s="158"/>
+      <c r="D110" s="150"/>
+      <c r="E110" s="152"/>
+      <c r="F110" s="152"/>
       <c r="G110" s="101" t="s">
         <v>3</v>
       </c>
@@ -73540,7 +73558,7 @@
         <f t="shared" si="8"/>
         <v>33.700000000000003</v>
       </c>
-      <c r="P110" s="173">
+      <c r="P110" s="132">
         <v>33.75</v>
       </c>
       <c r="Q110" s="67"/>
@@ -78332,13 +78350,13 @@
       <c r="C191" s="26" t="s">
         <v>3675</v>
       </c>
-      <c r="D191" s="160" t="s">
+      <c r="D191" s="143" t="s">
         <v>1673</v>
       </c>
-      <c r="E191" s="163" t="s">
+      <c r="E191" s="146" t="s">
         <v>1674</v>
       </c>
-      <c r="F191" s="163" t="s">
+      <c r="F191" s="146" t="s">
         <v>1675</v>
       </c>
       <c r="G191" s="101" t="s">
@@ -78373,10 +78391,10 @@
         <f t="shared" si="13"/>
         <v>14.98</v>
       </c>
-      <c r="P191" s="172">
+      <c r="P191" s="131">
         <v>14.98</v>
       </c>
-      <c r="Q191" s="175" t="s">
+      <c r="Q191" s="134" t="s">
         <v>3680</v>
       </c>
       <c r="T191" s="69"/>
@@ -78392,9 +78410,9 @@
       <c r="C192" s="26" t="s">
         <v>3676</v>
       </c>
-      <c r="D192" s="161"/>
-      <c r="E192" s="164"/>
-      <c r="F192" s="164"/>
+      <c r="D192" s="144"/>
+      <c r="E192" s="147"/>
+      <c r="F192" s="147"/>
       <c r="G192" s="101" t="s">
         <v>3163</v>
       </c>
@@ -78427,10 +78445,10 @@
         <f t="shared" si="13"/>
         <v>7.49</v>
       </c>
-      <c r="P192" s="174">
+      <c r="P192" s="133">
         <v>7.49</v>
       </c>
-      <c r="Q192" s="175" t="s">
+      <c r="Q192" s="134" t="s">
         <v>3680</v>
       </c>
       <c r="T192" s="69"/>
@@ -78446,9 +78464,9 @@
       <c r="C193" s="26" t="s">
         <v>3677</v>
       </c>
-      <c r="D193" s="161"/>
-      <c r="E193" s="164"/>
-      <c r="F193" s="164"/>
+      <c r="D193" s="144"/>
+      <c r="E193" s="147"/>
+      <c r="F193" s="147"/>
       <c r="G193" s="101" t="s">
         <v>3202</v>
       </c>
@@ -78481,10 +78499,10 @@
         <f t="shared" si="13"/>
         <v>33.700000000000003</v>
       </c>
-      <c r="P193" s="174">
+      <c r="P193" s="133">
         <v>33.700000000000003</v>
       </c>
-      <c r="Q193" s="175" t="s">
+      <c r="Q193" s="134" t="s">
         <v>3680</v>
       </c>
       <c r="T193" s="69"/>
@@ -78500,9 +78518,9 @@
       <c r="C194" s="26" t="s">
         <v>3678</v>
       </c>
-      <c r="D194" s="162"/>
-      <c r="E194" s="165"/>
-      <c r="F194" s="165"/>
+      <c r="D194" s="145"/>
+      <c r="E194" s="148"/>
+      <c r="F194" s="148"/>
       <c r="G194" s="101" t="s">
         <v>3</v>
       </c>
@@ -78535,10 +78553,10 @@
         <f t="shared" si="13"/>
         <v>11.23</v>
       </c>
-      <c r="P194" s="173">
+      <c r="P194" s="132">
         <v>11.23</v>
       </c>
-      <c r="Q194" s="175" t="s">
+      <c r="Q194" s="134" t="s">
         <v>3680</v>
       </c>
       <c r="R194" s="73">
@@ -83571,6 +83589,37 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="F5:F10"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="D69:D72"/>
     <mergeCell ref="D191:D194"/>
     <mergeCell ref="E191:E194"/>
     <mergeCell ref="F191:F194"/>
@@ -83582,37 +83631,6 @@
     <mergeCell ref="E107:E108"/>
     <mergeCell ref="F107:F108"/>
     <mergeCell ref="E109:E110"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E5:E10"/>
-    <mergeCell ref="F5:F10"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -83621,10 +83639,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AA105"/>
+  <dimension ref="A1:AA106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R79" sqref="R79"/>
+    <sheetView tabSelected="1" topLeftCell="C66" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -83653,25 +83671,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="158" t="s">
         <v>3413</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
       <c r="R1" s="54"/>
       <c r="S1" s="95"/>
       <c r="T1" s="95"/>
@@ -83705,96 +83723,96 @@
       <c r="V2" s="24"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="145" t="s">
+      <c r="D3" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="131" t="s">
+      <c r="E3" s="137" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="96"/>
       <c r="G3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="155" t="s">
+      <c r="H3" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="146" t="s">
+      <c r="I3" s="160" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="126"/>
-      <c r="K3" s="140" t="s">
+      <c r="K3" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="148" t="s">
+      <c r="L3" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="140" t="s">
+      <c r="M3" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="140" t="s">
+      <c r="N3" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="140" t="s">
+      <c r="O3" s="162" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="142" t="s">
+      <c r="Q3" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="150" t="s">
+      <c r="R3" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="152">
+      <c r="S3" s="173">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="138" t="s">
+      <c r="T3" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="139" t="s">
+      <c r="V3" s="168" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="131"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="131"/>
+      <c r="A4" s="137"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="137"/>
       <c r="F4" s="97"/>
       <c r="G4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="156"/>
-      <c r="I4" s="147"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="161"/>
       <c r="J4" s="127"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
       <c r="P4" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="151"/>
-      <c r="S4" s="152"/>
-      <c r="T4" s="137"/>
-      <c r="U4" s="138"/>
-      <c r="V4" s="139"/>
+      <c r="Q4" s="170"/>
+      <c r="R4" s="172"/>
+      <c r="S4" s="173"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="167"/>
+      <c r="V4" s="168"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="51">
@@ -86754,13 +86772,13 @@
       <c r="C51" s="26" t="s">
         <v>3693</v>
       </c>
-      <c r="D51" s="160" t="s">
+      <c r="D51" s="143" t="s">
         <v>2976</v>
       </c>
-      <c r="E51" s="163" t="s">
+      <c r="E51" s="146" t="s">
         <v>2977</v>
       </c>
-      <c r="F51" s="157" t="s">
+      <c r="F51" s="151" t="s">
         <v>3684</v>
       </c>
       <c r="G51" s="3" t="s">
@@ -86799,7 +86817,7 @@
         <f t="shared" si="4"/>
         <v>303.88</v>
       </c>
-      <c r="Q51" s="176">
+      <c r="Q51" s="135">
         <v>304</v>
       </c>
       <c r="R51" s="67">
@@ -86818,9 +86836,9 @@
       <c r="C52" s="26" t="s">
         <v>3694</v>
       </c>
-      <c r="D52" s="162"/>
-      <c r="E52" s="165"/>
-      <c r="F52" s="158"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="148"/>
+      <c r="F52" s="152"/>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -86857,7 +86875,7 @@
         <f t="shared" si="4"/>
         <v>205.44</v>
       </c>
-      <c r="Q52" s="177">
+      <c r="Q52" s="136">
         <v>205.5</v>
       </c>
       <c r="R52" s="67">
@@ -88348,13 +88366,13 @@
       <c r="C76" s="26" t="s">
         <v>3783</v>
       </c>
-      <c r="D76" s="170" t="s">
+      <c r="D76" s="176" t="s">
         <v>2946</v>
       </c>
-      <c r="E76" s="168" t="s">
+      <c r="E76" s="174" t="s">
         <v>2947</v>
       </c>
-      <c r="F76" s="168" t="s">
+      <c r="F76" s="174" t="s">
         <v>2948</v>
       </c>
       <c r="G76" s="3" t="s">
@@ -88393,7 +88411,7 @@
         <f t="shared" si="11"/>
         <v>59.92</v>
       </c>
-      <c r="Q76" s="176">
+      <c r="Q76" s="135">
         <v>60</v>
       </c>
       <c r="R76" s="74">
@@ -88413,9 +88431,9 @@
       <c r="C77" s="26" t="s">
         <v>3784</v>
       </c>
-      <c r="D77" s="171"/>
-      <c r="E77" s="169"/>
-      <c r="F77" s="169"/>
+      <c r="D77" s="177"/>
+      <c r="E77" s="175"/>
+      <c r="F77" s="175"/>
       <c r="G77" s="3" t="s">
         <v>3202</v>
       </c>
@@ -88452,7 +88470,7 @@
         <f t="shared" si="11"/>
         <v>64.2</v>
       </c>
-      <c r="Q77" s="177">
+      <c r="Q77" s="136">
         <v>64.25</v>
       </c>
       <c r="R77" s="74">
@@ -89390,144 +89408,211 @@
         <v>1875.71</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E92" s="79" t="s">
+    <row r="92" spans="1:22" s="183" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="178">
+        <v>87</v>
+      </c>
+      <c r="B92" s="179" t="s">
+        <v>3837</v>
+      </c>
+      <c r="C92" s="178" t="s">
+        <v>3838</v>
+      </c>
+      <c r="D92" s="179" t="s">
+        <v>2674</v>
+      </c>
+      <c r="E92" s="180" t="s">
+        <v>2675</v>
+      </c>
+      <c r="F92" s="180" t="s">
+        <v>2676</v>
+      </c>
+      <c r="G92" s="179" t="s">
+        <v>3202</v>
+      </c>
+      <c r="H92" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I92" s="65">
+        <v>140</v>
+      </c>
+      <c r="J92" s="65">
+        <f>SUM(H92:I92)</f>
+        <v>2140</v>
+      </c>
+      <c r="K92" s="66">
+        <v>0</v>
+      </c>
+      <c r="L92" s="65">
+        <f>ROUNDDOWN(K92*4,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M92" s="65">
+        <f>ROUNDDOWN(L92*7%,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N92" s="181">
+        <f>ROUNDDOWN(L92+M92,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O92" s="65">
+        <f>SUM(I92+M92)</f>
+        <v>140</v>
+      </c>
+      <c r="P92" s="65">
+        <f>ROUNDDOWN(H92+I92+N92,2)</f>
+        <v>2140</v>
+      </c>
+      <c r="Q92" s="65">
+        <v>2140</v>
+      </c>
+      <c r="R92" s="182"/>
+      <c r="S92" s="69"/>
+      <c r="T92" s="69"/>
+      <c r="U92" s="69"/>
+      <c r="V92" s="72"/>
+    </row>
+    <row r="93" spans="1:22" ht="25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E93" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="G92" s="80"/>
-      <c r="H92" s="80">
-        <f>SUM(H5:H91)</f>
-        <v>20304</v>
-      </c>
-      <c r="I92" s="80">
-        <f>SUM(I5:I91)</f>
-        <v>1421.2800000000002</v>
-      </c>
-      <c r="J92" s="80"/>
-      <c r="K92" s="80"/>
-      <c r="L92" s="81"/>
-      <c r="M92" s="81"/>
-      <c r="N92" s="82">
+      <c r="G93" s="80"/>
+      <c r="H93" s="80">
+        <f>SUM(H5:H92)</f>
+        <v>22304</v>
+      </c>
+      <c r="I93" s="80">
+        <f>SUM(I5:I92)</f>
+        <v>1561.2800000000002</v>
+      </c>
+      <c r="J93" s="80"/>
+      <c r="K93" s="80"/>
+      <c r="L93" s="81"/>
+      <c r="M93" s="81"/>
+      <c r="N93" s="82">
         <f>SUM(N5:N91)</f>
         <v>10836.960000000003</v>
       </c>
-      <c r="O92" s="80">
-        <f>SUM(O5:O91)</f>
-        <v>2130.2400000000011</v>
-      </c>
-      <c r="P92" s="83">
-        <f>SUM(P5:P91)</f>
-        <v>32562.239999999998</v>
-      </c>
-      <c r="Q92" s="84">
-        <f>SUM(Q5:Q91)</f>
+      <c r="O93" s="80">
+        <f>SUM(O5:O92)</f>
+        <v>2270.2400000000011</v>
+      </c>
+      <c r="P93" s="83">
+        <f>SUM(P5:P92)</f>
+        <v>34702.239999999998</v>
+      </c>
+      <c r="Q93" s="84">
+        <f>SUM(Q5:Q92)</f>
+        <v>34712.340000000004</v>
+      </c>
+      <c r="R93" s="85"/>
+      <c r="U93" s="69"/>
+      <c r="V93" s="69"/>
+    </row>
+    <row r="94" spans="1:22" ht="25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="G94" s="73"/>
+      <c r="H94" s="73"/>
+      <c r="I94" s="86">
+        <f>SUM(H93:I93)</f>
+        <v>23865.279999999999</v>
+      </c>
+      <c r="J94" s="86"/>
+      <c r="K94" s="71"/>
+      <c r="L94" s="73"/>
+      <c r="M94" s="73"/>
+      <c r="N94" s="100">
+        <f>SUM(I94+N93)</f>
+        <v>34702.240000000005</v>
+      </c>
+      <c r="O94" s="87">
+        <f>SUM(I94+N93)</f>
+        <v>34702.240000000005</v>
+      </c>
+      <c r="Q94" s="89"/>
+      <c r="R94" s="68"/>
+      <c r="S94" s="90">
+        <f>SUM(S5:S93)</f>
+        <v>2130.2399999999998</v>
+      </c>
+      <c r="T94" s="105">
+        <f>SUM(T5:T93)</f>
+        <v>32562.240000000005</v>
+      </c>
+      <c r="U94" s="106">
+        <f>SUM(U5:U93)</f>
         <v>32572.340000000004</v>
       </c>
-      <c r="R92" s="85"/>
-      <c r="U92" s="69"/>
-      <c r="V92" s="69"/>
-    </row>
-    <row r="93" spans="1:22" ht="25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="G93" s="73"/>
-      <c r="H93" s="73"/>
-      <c r="I93" s="86">
-        <f>SUM(H92:I92)</f>
-        <v>21725.279999999999</v>
-      </c>
-      <c r="J93" s="86"/>
-      <c r="K93" s="71"/>
-      <c r="L93" s="73"/>
-      <c r="M93" s="73"/>
-      <c r="N93" s="100">
-        <f>SUM(I93+N92)</f>
-        <v>32562.240000000002</v>
-      </c>
-      <c r="O93" s="87">
-        <f>SUM(I93+N92)</f>
-        <v>32562.240000000002</v>
-      </c>
-      <c r="Q93" s="89"/>
-      <c r="R93" s="68"/>
-      <c r="S93" s="90">
-        <f>SUM(S5:S92)</f>
-        <v>2130.2399999999998</v>
-      </c>
-      <c r="T93" s="105">
-        <f>SUM(T5:T92)</f>
-        <v>32562.240000000005</v>
-      </c>
-      <c r="U93" s="106">
-        <f>SUM(U5:U92)</f>
+      <c r="V94" s="106">
+        <f>SUM(V5:V93)</f>
         <v>32572.340000000004</v>
       </c>
-      <c r="V93" s="106">
-        <f>SUM(V5:V92)</f>
-        <v>32572.340000000004</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="U94" s="52"/>
-    </row>
-    <row r="103" spans="8:13" x14ac:dyDescent="0.4">
-      <c r="H103" s="91" t="s">
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="U95" s="52"/>
+    </row>
+    <row r="104" spans="8:13" x14ac:dyDescent="0.4">
+      <c r="H104" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="I103" s="91" t="s">
+      <c r="I104" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="K103" s="93" t="s">
+      <c r="K104" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="L103" s="88" t="s">
+      <c r="L104" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="M103" s="88" t="s">
+      <c r="M104" s="88" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="8:13" x14ac:dyDescent="0.4">
-      <c r="H104" s="88">
+    <row r="105" spans="8:13" x14ac:dyDescent="0.4">
+      <c r="H105" s="88">
         <v>25</v>
       </c>
-      <c r="I104" s="88">
+      <c r="I105" s="88">
         <v>3.5</v>
       </c>
-      <c r="J104" s="88"/>
-      <c r="K104" s="88">
-        <f>ROUNDDOWN(H104*I104,2)</f>
+      <c r="J105" s="88"/>
+      <c r="K105" s="88">
+        <f>ROUNDDOWN(H105*I105,2)</f>
         <v>87.5</v>
       </c>
-      <c r="L104" s="88">
-        <f>ROUNDDOWN(K104*7%,2)</f>
+      <c r="L105" s="88">
+        <f>ROUNDDOWN(K105*7%,2)</f>
         <v>6.12</v>
-      </c>
-      <c r="M104" s="88">
-        <f>SUM(K104:L104)</f>
-        <v>93.62</v>
-      </c>
-    </row>
-    <row r="105" spans="8:13" x14ac:dyDescent="0.4">
-      <c r="K105" s="88">
-        <f>ROUNDUP(K104,2)</f>
-        <v>87.5</v>
-      </c>
-      <c r="L105" s="88">
-        <f>ROUNDUP(K105*7%,2)</f>
-        <v>6.13</v>
       </c>
       <c r="M105" s="88">
         <f>SUM(K105:L105)</f>
+        <v>93.62</v>
+      </c>
+    </row>
+    <row r="106" spans="8:13" x14ac:dyDescent="0.4">
+      <c r="K106" s="88">
+        <f>ROUNDUP(K105,2)</f>
+        <v>87.5</v>
+      </c>
+      <c r="L106" s="88">
+        <f>ROUNDUP(K106*7%,2)</f>
+        <v>6.13</v>
+      </c>
+      <c r="M106" s="88">
+        <f>SUM(K106:L106)</f>
         <v>93.63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -89538,15 +89623,12 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="D76:D77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/import/prep/excel_original_receipt/63-9ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ เมย63 (1-30มิย63).xlsx
+++ b/import/prep/excel_original_receipt/63-9ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ เมย63 (1-30มิย63).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Works/WMA201AM1/import/prep/excel_original_receipt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thansitar/Downloads/excel_original_receipt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F18F42-7131-9640-A91F-B2C0DFE58920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB0A4D2-4D11-A84A-856C-2D0E5F32A75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22080" yWindow="860" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7590" uniqueCount="3839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7638" uniqueCount="3839">
   <si>
     <t>รวมเงิน</t>
   </si>
@@ -11825,7 +11825,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12179,6 +12179,24 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12195,43 +12213,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12252,66 +12261,28 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -12625,22 +12596,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="146" t="s">
         <v>3190</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="112"/>
@@ -12662,25 +12633,25 @@
       <c r="P2" s="115"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="145" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="137" t="s">
+      <c r="D3" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="137" t="s">
+      <c r="E3" s="145" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="141" t="s">
+      <c r="G3" s="149" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="113" t="s">
@@ -12689,47 +12660,47 @@
       <c r="I3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="137" t="s">
+      <c r="J3" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="145" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="137" t="s">
+      <c r="M3" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="140" t="s">
+      <c r="N3" s="148" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="137"/>
-      <c r="B4" s="137"/>
+      <c r="A4" s="145"/>
+      <c r="B4" s="145"/>
       <c r="C4" s="111" t="s">
         <v>2419</v>
       </c>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
       <c r="F4" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="141"/>
+      <c r="G4" s="149"/>
       <c r="H4" s="113" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
       <c r="L4" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="137"/>
-      <c r="N4" s="140"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="148"/>
       <c r="R4" s="109" t="s">
         <v>3191</v>
       </c>
@@ -55006,21 +54977,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="147" t="s">
         <v>3370</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
       <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
@@ -55041,25 +55012,25 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="145" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="137" t="s">
+      <c r="D3" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="137" t="s">
+      <c r="E3" s="145" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="141" t="s">
+      <c r="G3" s="149" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="113" t="s">
@@ -55068,47 +55039,47 @@
       <c r="I3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="137" t="s">
+      <c r="J3" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="145" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="137" t="s">
+      <c r="M3" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="140" t="s">
+      <c r="N3" s="148" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="137"/>
-      <c r="B4" s="137"/>
+      <c r="A4" s="145"/>
+      <c r="B4" s="145"/>
       <c r="C4" s="111" t="s">
         <v>2419</v>
       </c>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
       <c r="F4" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="141"/>
+      <c r="G4" s="149"/>
       <c r="H4" s="113" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
       <c r="L4" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="137"/>
-      <c r="N4" s="140"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="148"/>
     </row>
     <row r="5" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="27">
@@ -67189,8 +67160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA290"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F285" sqref="F285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -67220,24 +67191,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="163" t="s">
         <v>3412</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
       <c r="Q1" s="54"/>
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
@@ -67270,96 +67241,96 @@
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="159" t="s">
+      <c r="D3" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="137" t="s">
+      <c r="E3" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="156" t="s">
+      <c r="F3" s="161" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="156" t="s">
+      <c r="H3" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="160" t="s">
+      <c r="I3" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="162" t="s">
+      <c r="J3" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="164" t="s">
+      <c r="K3" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="162" t="s">
+      <c r="L3" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="162" t="s">
+      <c r="M3" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="162" t="s">
+      <c r="N3" s="154" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="169" t="s">
+      <c r="P3" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="171" t="s">
+      <c r="Q3" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="173">
+      <c r="R3" s="160">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S3" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="167" t="s">
+      <c r="S3" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="168" t="s">
+      <c r="U3" s="153" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="137"/>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="157"/>
+      <c r="A4" s="145"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="162"/>
       <c r="G4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="157"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="165"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
       <c r="O4" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="172"/>
-      <c r="R4" s="173"/>
-      <c r="S4" s="166"/>
-      <c r="T4" s="167"/>
-      <c r="U4" s="168"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="159"/>
+      <c r="R4" s="160"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="152"/>
+      <c r="U4" s="153"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="51">
@@ -67371,13 +67342,13 @@
       <c r="C5" s="26" t="s">
         <v>3414</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="174" t="s">
         <v>2230</v>
       </c>
-      <c r="E5" s="155" t="s">
+      <c r="E5" s="172" t="s">
         <v>2231</v>
       </c>
-      <c r="F5" s="155" t="s">
+      <c r="F5" s="172" t="s">
         <v>2216</v>
       </c>
       <c r="G5" s="121" t="s">
@@ -67431,9 +67402,15 @@
       <c r="C6" s="26" t="s">
         <v>3417</v>
       </c>
-      <c r="D6" s="153"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
+      <c r="D6" s="174" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E6" s="172" t="s">
+        <v>2231</v>
+      </c>
+      <c r="F6" s="172" t="s">
+        <v>2216</v>
+      </c>
       <c r="G6" s="121" t="s">
         <v>3163</v>
       </c>
@@ -67485,11 +67462,15 @@
       <c r="C7" s="26" t="s">
         <v>3418</v>
       </c>
-      <c r="D7" s="154" t="s">
+      <c r="D7" s="173" t="s">
         <v>2232</v>
       </c>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
+      <c r="E7" s="172" t="s">
+        <v>2231</v>
+      </c>
+      <c r="F7" s="172" t="s">
+        <v>2216</v>
+      </c>
       <c r="G7" s="121" t="s">
         <v>3435</v>
       </c>
@@ -67542,9 +67523,15 @@
       <c r="C8" s="26" t="s">
         <v>3419</v>
       </c>
-      <c r="D8" s="154"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
+      <c r="D8" s="173" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E8" s="172" t="s">
+        <v>2231</v>
+      </c>
+      <c r="F8" s="172" t="s">
+        <v>2216</v>
+      </c>
       <c r="G8" s="121" t="s">
         <v>3163</v>
       </c>
@@ -67600,8 +67587,12 @@
       <c r="D9" s="3" t="s">
         <v>2230</v>
       </c>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
+      <c r="E9" s="172" t="s">
+        <v>2231</v>
+      </c>
+      <c r="F9" s="172" t="s">
+        <v>2216</v>
+      </c>
       <c r="G9" s="121" t="s">
         <v>3202</v>
       </c>
@@ -67655,8 +67646,12 @@
       <c r="D10" s="3" t="s">
         <v>2232</v>
       </c>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
+      <c r="E10" s="172" t="s">
+        <v>2231</v>
+      </c>
+      <c r="F10" s="172" t="s">
+        <v>2216</v>
+      </c>
       <c r="G10" s="121" t="s">
         <v>3202</v>
       </c>
@@ -68731,13 +68726,13 @@
       <c r="C28" s="26" t="s">
         <v>3449</v>
       </c>
-      <c r="D28" s="143" t="s">
+      <c r="D28" s="170" t="s">
         <v>1770</v>
       </c>
-      <c r="E28" s="146" t="s">
+      <c r="E28" s="134" t="s">
         <v>1771</v>
       </c>
-      <c r="F28" s="146" t="s">
+      <c r="F28" s="134" t="s">
         <v>1772</v>
       </c>
       <c r="G28" s="101" t="s">
@@ -68793,9 +68788,15 @@
       <c r="C29" s="26" t="s">
         <v>3450</v>
       </c>
-      <c r="D29" s="145"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
+      <c r="D29" s="170" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E29" s="134" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F29" s="134" t="s">
+        <v>1772</v>
+      </c>
       <c r="G29" s="101" t="s">
         <v>3</v>
       </c>
@@ -71135,13 +71136,13 @@
       <c r="C69" s="26" t="s">
         <v>3500</v>
       </c>
-      <c r="D69" s="154" t="s">
+      <c r="D69" s="173" t="s">
         <v>701</v>
       </c>
-      <c r="E69" s="155" t="s">
+      <c r="E69" s="172" t="s">
         <v>702</v>
       </c>
-      <c r="F69" s="155" t="s">
+      <c r="F69" s="172" t="s">
         <v>703</v>
       </c>
       <c r="G69" s="101" t="s">
@@ -71197,9 +71198,15 @@
       <c r="C70" s="26" t="s">
         <v>3501</v>
       </c>
-      <c r="D70" s="154"/>
-      <c r="E70" s="155"/>
-      <c r="F70" s="155"/>
+      <c r="D70" s="173" t="s">
+        <v>701</v>
+      </c>
+      <c r="E70" s="172" t="s">
+        <v>702</v>
+      </c>
+      <c r="F70" s="172" t="s">
+        <v>703</v>
+      </c>
       <c r="G70" s="101" t="s">
         <v>3435</v>
       </c>
@@ -71251,9 +71258,15 @@
       <c r="C71" s="26" t="s">
         <v>3502</v>
       </c>
-      <c r="D71" s="154"/>
-      <c r="E71" s="155"/>
-      <c r="F71" s="155"/>
+      <c r="D71" s="173" t="s">
+        <v>701</v>
+      </c>
+      <c r="E71" s="172" t="s">
+        <v>702</v>
+      </c>
+      <c r="F71" s="172" t="s">
+        <v>703</v>
+      </c>
       <c r="G71" s="101" t="s">
         <v>3163</v>
       </c>
@@ -71305,9 +71318,15 @@
       <c r="C72" s="26" t="s">
         <v>3503</v>
       </c>
-      <c r="D72" s="154"/>
-      <c r="E72" s="155"/>
-      <c r="F72" s="155"/>
+      <c r="D72" s="173" t="s">
+        <v>701</v>
+      </c>
+      <c r="E72" s="172" t="s">
+        <v>702</v>
+      </c>
+      <c r="F72" s="172" t="s">
+        <v>703</v>
+      </c>
       <c r="G72" s="101" t="s">
         <v>3202</v>
       </c>
@@ -72655,13 +72674,13 @@
       <c r="C95" s="26" t="s">
         <v>3545</v>
       </c>
-      <c r="D95" s="149" t="s">
+      <c r="D95" s="171" t="s">
         <v>1302</v>
       </c>
-      <c r="E95" s="151" t="s">
+      <c r="E95" s="134" t="s">
         <v>1303</v>
       </c>
-      <c r="F95" s="151" t="s">
+      <c r="F95" s="134" t="s">
         <v>1304</v>
       </c>
       <c r="G95" s="101" t="s">
@@ -72716,9 +72735,15 @@
       <c r="C96" s="26" t="s">
         <v>3546</v>
       </c>
-      <c r="D96" s="150"/>
-      <c r="E96" s="152"/>
-      <c r="F96" s="152"/>
+      <c r="D96" s="171" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E96" s="134" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F96" s="134" t="s">
+        <v>1304</v>
+      </c>
       <c r="G96" s="101" t="s">
         <v>3</v>
       </c>
@@ -73351,13 +73376,13 @@
       <c r="C107" s="26" t="s">
         <v>3557</v>
       </c>
-      <c r="D107" s="149" t="s">
+      <c r="D107" s="171" t="s">
         <v>2235</v>
       </c>
-      <c r="E107" s="151" t="s">
+      <c r="E107" s="134" t="s">
         <v>2234</v>
       </c>
-      <c r="F107" s="151" t="s">
+      <c r="F107" s="134" t="s">
         <v>2216</v>
       </c>
       <c r="G107" s="101" t="s">
@@ -73413,9 +73438,15 @@
       <c r="C108" s="26" t="s">
         <v>3558</v>
       </c>
-      <c r="D108" s="150"/>
-      <c r="E108" s="152"/>
-      <c r="F108" s="152"/>
+      <c r="D108" s="171" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E108" s="134" t="s">
+        <v>2234</v>
+      </c>
+      <c r="F108" s="134" t="s">
+        <v>2216</v>
+      </c>
       <c r="G108" s="101" t="s">
         <v>3</v>
       </c>
@@ -73465,13 +73496,13 @@
       <c r="C109" s="26" t="s">
         <v>3559</v>
       </c>
-      <c r="D109" s="149" t="s">
+      <c r="D109" s="171" t="s">
         <v>2233</v>
       </c>
-      <c r="E109" s="151" t="s">
+      <c r="E109" s="134" t="s">
         <v>2234</v>
       </c>
-      <c r="F109" s="151" t="s">
+      <c r="F109" s="134" t="s">
         <v>2216</v>
       </c>
       <c r="G109" s="101" t="s">
@@ -73523,9 +73554,15 @@
       <c r="C110" s="26" t="s">
         <v>3560</v>
       </c>
-      <c r="D110" s="150"/>
-      <c r="E110" s="152"/>
-      <c r="F110" s="152"/>
+      <c r="D110" s="171" t="s">
+        <v>2233</v>
+      </c>
+      <c r="E110" s="134" t="s">
+        <v>2234</v>
+      </c>
+      <c r="F110" s="134" t="s">
+        <v>2216</v>
+      </c>
       <c r="G110" s="101" t="s">
         <v>3</v>
       </c>
@@ -78350,13 +78387,13 @@
       <c r="C191" s="26" t="s">
         <v>3675</v>
       </c>
-      <c r="D191" s="143" t="s">
+      <c r="D191" s="170" t="s">
         <v>1673</v>
       </c>
-      <c r="E191" s="146" t="s">
+      <c r="E191" s="134" t="s">
         <v>1674</v>
       </c>
-      <c r="F191" s="146" t="s">
+      <c r="F191" s="134" t="s">
         <v>1675</v>
       </c>
       <c r="G191" s="101" t="s">
@@ -78410,9 +78447,15 @@
       <c r="C192" s="26" t="s">
         <v>3676</v>
       </c>
-      <c r="D192" s="144"/>
-      <c r="E192" s="147"/>
-      <c r="F192" s="147"/>
+      <c r="D192" s="170" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E192" s="134" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F192" s="134" t="s">
+        <v>1675</v>
+      </c>
       <c r="G192" s="101" t="s">
         <v>3163</v>
       </c>
@@ -78464,9 +78507,15 @@
       <c r="C193" s="26" t="s">
         <v>3677</v>
       </c>
-      <c r="D193" s="144"/>
-      <c r="E193" s="147"/>
-      <c r="F193" s="147"/>
+      <c r="D193" s="170" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E193" s="134" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F193" s="134" t="s">
+        <v>1675</v>
+      </c>
       <c r="G193" s="101" t="s">
         <v>3202</v>
       </c>
@@ -78518,9 +78567,15 @@
       <c r="C194" s="26" t="s">
         <v>3678</v>
       </c>
-      <c r="D194" s="145"/>
-      <c r="E194" s="148"/>
-      <c r="F194" s="148"/>
+      <c r="D194" s="170" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E194" s="134" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F194" s="134" t="s">
+        <v>1675</v>
+      </c>
       <c r="G194" s="101" t="s">
         <v>3</v>
       </c>
@@ -83588,16 +83643,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
+  <mergeCells count="20">
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:A4"/>
@@ -83608,29 +83655,15 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E5:E10"/>
-    <mergeCell ref="F5:F10"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="D191:D194"/>
-    <mergeCell ref="E191:E194"/>
-    <mergeCell ref="F191:F194"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -83641,8 +83674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C66" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView topLeftCell="C76" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -83671,25 +83704,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="163" t="s">
         <v>3413</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
       <c r="R1" s="54"/>
       <c r="S1" s="95"/>
       <c r="T1" s="95"/>
@@ -83723,96 +83756,96 @@
       <c r="V2" s="24"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="159" t="s">
+      <c r="D3" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="137" t="s">
+      <c r="E3" s="145" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="96"/>
       <c r="G3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="156" t="s">
+      <c r="H3" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="160" t="s">
+      <c r="I3" s="165" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="126"/>
-      <c r="K3" s="162" t="s">
+      <c r="K3" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="164" t="s">
+      <c r="L3" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="162" t="s">
+      <c r="M3" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="162" t="s">
+      <c r="N3" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="162" t="s">
+      <c r="O3" s="154" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="169" t="s">
+      <c r="Q3" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="171" t="s">
+      <c r="R3" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="173">
+      <c r="S3" s="160">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="167" t="s">
+      <c r="T3" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="168" t="s">
+      <c r="V3" s="153" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="137"/>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="137"/>
+      <c r="A4" s="145"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="145"/>
       <c r="F4" s="97"/>
       <c r="G4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="157"/>
-      <c r="I4" s="161"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="166"/>
       <c r="J4" s="127"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="165"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
       <c r="P4" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="172"/>
-      <c r="S4" s="173"/>
-      <c r="T4" s="166"/>
-      <c r="U4" s="167"/>
-      <c r="V4" s="168"/>
+      <c r="Q4" s="157"/>
+      <c r="R4" s="159"/>
+      <c r="S4" s="160"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="152"/>
+      <c r="V4" s="153"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="51">
@@ -86772,13 +86805,13 @@
       <c r="C51" s="26" t="s">
         <v>3693</v>
       </c>
-      <c r="D51" s="143" t="s">
+      <c r="D51" s="137" t="s">
         <v>2976</v>
       </c>
-      <c r="E51" s="146" t="s">
+      <c r="E51" s="134" t="s">
         <v>2977</v>
       </c>
-      <c r="F51" s="151" t="s">
+      <c r="F51" s="134" t="s">
         <v>3684</v>
       </c>
       <c r="G51" s="3" t="s">
@@ -86836,9 +86869,15 @@
       <c r="C52" s="26" t="s">
         <v>3694</v>
       </c>
-      <c r="D52" s="145"/>
-      <c r="E52" s="148"/>
-      <c r="F52" s="152"/>
+      <c r="D52" s="137" t="s">
+        <v>2976</v>
+      </c>
+      <c r="E52" s="134" t="s">
+        <v>2977</v>
+      </c>
+      <c r="F52" s="134" t="s">
+        <v>3684</v>
+      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -88366,13 +88405,13 @@
       <c r="C76" s="26" t="s">
         <v>3783</v>
       </c>
-      <c r="D76" s="176" t="s">
+      <c r="D76" s="138" t="s">
         <v>2946</v>
       </c>
-      <c r="E76" s="174" t="s">
+      <c r="E76" s="169" t="s">
         <v>2947</v>
       </c>
-      <c r="F76" s="174" t="s">
+      <c r="F76" s="169" t="s">
         <v>2948</v>
       </c>
       <c r="G76" s="3" t="s">
@@ -88431,9 +88470,15 @@
       <c r="C77" s="26" t="s">
         <v>3784</v>
       </c>
-      <c r="D77" s="177"/>
-      <c r="E77" s="175"/>
-      <c r="F77" s="175"/>
+      <c r="D77" s="138" t="s">
+        <v>2946</v>
+      </c>
+      <c r="E77" s="169" t="s">
+        <v>2947</v>
+      </c>
+      <c r="F77" s="169" t="s">
+        <v>2948</v>
+      </c>
       <c r="G77" s="3" t="s">
         <v>3202</v>
       </c>
@@ -89408,26 +89453,26 @@
         <v>1875.71</v>
       </c>
     </row>
-    <row r="92" spans="1:22" s="183" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="178">
+    <row r="92" spans="1:22" s="144" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="139">
         <v>87</v>
       </c>
-      <c r="B92" s="179" t="s">
+      <c r="B92" s="140" t="s">
         <v>3837</v>
       </c>
-      <c r="C92" s="178" t="s">
+      <c r="C92" s="139" t="s">
         <v>3838</v>
       </c>
-      <c r="D92" s="179" t="s">
+      <c r="D92" s="140" t="s">
         <v>2674</v>
       </c>
-      <c r="E92" s="180" t="s">
+      <c r="E92" s="141" t="s">
         <v>2675</v>
       </c>
-      <c r="F92" s="180" t="s">
+      <c r="F92" s="141" t="s">
         <v>2676</v>
       </c>
-      <c r="G92" s="179" t="s">
+      <c r="G92" s="140" t="s">
         <v>3202</v>
       </c>
       <c r="H92" s="5">
@@ -89451,7 +89496,7 @@
         <f>ROUNDDOWN(L92*7%,2)</f>
         <v>0</v>
       </c>
-      <c r="N92" s="181">
+      <c r="N92" s="142">
         <f>ROUNDDOWN(L92+M92,2)</f>
         <v>0</v>
       </c>
@@ -89466,7 +89511,7 @@
       <c r="Q92" s="65">
         <v>2140</v>
       </c>
-      <c r="R92" s="182"/>
+      <c r="R92" s="143"/>
       <c r="S92" s="69"/>
       <c r="T92" s="69"/>
       <c r="U92" s="69"/>
@@ -89603,16 +89648,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
+  <mergeCells count="19">
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -89623,12 +89659,15 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
